--- a/young_1_0/conf/all_name.xlsx
+++ b/young_1_0/conf/all_name.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22479\Desktop\fentuanwei\9.22周三\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\PyCode\yongStudy\young_1_0\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA468DB0-E74F-413C-981B-9D87DB95979E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109FCE02-A89A-4483-8BDB-7F67E7E81561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="19级" sheetId="1" r:id="rId1"/>
@@ -2063,27 +2063,27 @@
   <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="27.58203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.4140625" style="3" customWidth="1"/>
-    <col min="5" max="6" width="19.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="20.08203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="33.75" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" style="3" customWidth="1"/>
+    <col min="5" max="6" width="19.44140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="33.77734375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.44140625" style="3" customWidth="1"/>
     <col min="10" max="10" width="25" style="3" customWidth="1"/>
-    <col min="11" max="11" width="27.25" style="3" customWidth="1"/>
+    <col min="11" max="11" width="27.21875" style="3" customWidth="1"/>
     <col min="12" max="12" width="22.33203125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="29.5" style="3" customWidth="1"/>
+    <col min="13" max="13" width="29.44140625" style="3" customWidth="1"/>
     <col min="14" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>38</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>51</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>64</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>77</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>90</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>103</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>116</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>129</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>142</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>155</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>168</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>181</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>194</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>207</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>220</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>233</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>246</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>259</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>272</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>285</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>298</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>311</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>324</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>337</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>350</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>363</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>376</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>389</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>402</v>
       </c>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="M32" s="5"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>414</v>
       </c>
@@ -3432,7 +3432,7 @@
       </c>
       <c r="M33" s="5"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>426</v>
       </c>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="M34" s="5"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>438</v>
       </c>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="M35" s="5"/>
     </row>
-    <row r="36" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="5" t="s">
         <v>448</v>
@@ -3536,7 +3536,7 @@
       <c r="M36" s="5"/>
       <c r="N36" s="9"/>
     </row>
-    <row r="37" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="5" t="s">
         <v>455</v>
@@ -3566,7 +3566,7 @@
       <c r="M37" s="5"/>
       <c r="N37" s="9"/>
     </row>
-    <row r="38" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="5" t="s">
         <v>462</v>
@@ -3594,7 +3594,7 @@
       <c r="M38" s="5"/>
       <c r="N38" s="9"/>
     </row>
-    <row r="39" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="5" t="s">
         <v>468</v>
@@ -3622,7 +3622,7 @@
       <c r="M39" s="5"/>
       <c r="N39" s="9"/>
     </row>
-    <row r="40" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="5" t="s">
         <v>500</v>
@@ -3648,7 +3648,7 @@
       <c r="M40" s="5"/>
       <c r="N40" s="9"/>
     </row>
-    <row r="41" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -3672,7 +3672,7 @@
       <c r="M41" s="5"/>
       <c r="N41" s="9"/>
     </row>
-    <row r="42" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -3696,7 +3696,7 @@
       <c r="M42" s="5"/>
       <c r="N42" s="9"/>
     </row>
-    <row r="43" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -3718,7 +3718,7 @@
       <c r="M43" s="5"/>
       <c r="N43" s="9"/>
     </row>
-    <row r="44" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -3738,7 +3738,7 @@
       <c r="M44" s="5"/>
       <c r="N44" s="9"/>
     </row>
-    <row r="45" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -3758,7 +3758,7 @@
       <c r="M45" s="5"/>
       <c r="N45" s="9"/>
     </row>
-    <row r="46" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -3778,7 +3778,7 @@
       <c r="M46" s="5"/>
       <c r="N46" s="9"/>
     </row>
-    <row r="47" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -3796,7 +3796,7 @@
       <c r="M47" s="5"/>
       <c r="N47" s="9"/>
     </row>
-    <row r="48" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -3814,7 +3814,7 @@
       <c r="M48" s="5"/>
       <c r="N48" s="9"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -3831,7 +3831,7 @@
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -3848,7 +3848,7 @@
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -3865,7 +3865,7 @@
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -3882,7 +3882,7 @@
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -3897,7 +3897,7 @@
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -3912,7 +3912,7 @@
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -3927,7 +3927,7 @@
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -3942,7 +3942,7 @@
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -3957,7 +3957,7 @@
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -3972,7 +3972,7 @@
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -3987,7 +3987,7 @@
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -4002,7 +4002,7 @@
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -4017,7 +4017,7 @@
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -4032,7 +4032,7 @@
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -4047,7 +4047,7 @@
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -4062,7 +4062,7 @@
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -4077,7 +4077,7 @@
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -4092,7 +4092,7 @@
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -4107,7 +4107,7 @@
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -4122,7 +4122,7 @@
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -4137,7 +4137,7 @@
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
